--- a/20_Bausteine/Sonderzeichen/Transkriptionsregeln.xlsx
+++ b/20_Bausteine/Sonderzeichen/Transkriptionsregeln.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\temp\release_ifs_1.3.5\20_Bausteine\Sonderzeichen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="10410" windowHeight="7335" tabRatio="575" activeTab="1"/>
   </bookViews>
@@ -11,8 +16,8 @@
     <sheet name="Lizenz" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regeln!$C$1:$C$738</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Regeln!$1:$1</definedName>
+    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">Regeln!$C$1:$C$738</definedName>
+    <definedName name="Print_Titles" localSheetId="0">Regeln!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
@@ -6831,7 +6836,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -7014,7 +7019,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7022,6 +7027,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7080,9 +7088,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7120,9 +7128,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7157,7 +7165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7192,7 +7200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
